--- a/biology/Botanique/Tephroseris_helenitis/Tephroseris_helenitis.xlsx
+++ b/biology/Botanique/Tephroseris_helenitis/Tephroseris_helenitis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tephroseris helenitis, communément appelé Séneçon à feuilles en spatule ou Séneçon à feuilles spatulées, est une espèce de plantes à fleurs du genre Tephroseris et de la famille des Asteraceae[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tephroseris helenitis, communément appelé Séneçon à feuilles en spatule ou Séneçon à feuilles spatulées, est une espèce de plantes à fleurs du genre Tephroseris et de la famille des Asteraceae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (19 avril 2020)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (19 avril 2020) :
 Tephroseris helenitis subsp. arvernensis (Rouy) B.Nord.
 Tephroseris helenitis subsp. candida (Corb.) B.Nord.
 Tephroseris helenitis subsp. helenitis (L.) B.Nord.
@@ -547,12 +561,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est plus ou moins velue, laineuse, à tige striée. Elle mesure de 20 à 80 cm.
 			Les feuilles en spatule.
 Les feuilles ont la face inférieure laineuse, les basilaires à limbe ovale spatulé, les caulinaires de plus en plus réduites vers le haut de la tige.
-Les fleurs sont ligulées et tubulées, de couleur jaune, bractées de l'involucre sur un rang, toutes de même longueur[4].
+Les fleurs sont ligulées et tubulées, de couleur jaune, bractées de l'involucre sur un rang, toutes de même longueur.
 </t>
         </is>
       </c>
@@ -581,9 +597,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les séneçons à feuilles spatulées se rencontrent dans des milieux variés, des dunes du bord de l'Atlantique aux prairies humides des plateaux du Jura[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les séneçons à feuilles spatulées se rencontrent dans des milieux variés, des dunes du bord de l'Atlantique aux prairies humides des plateaux du Jura.
 Cette plante est méditerranéenne et européenne. Son habitat principal est les prairies humides.
 </t>
         </is>
